--- a/server/data/teams.xlsx
+++ b/server/data/teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dypark\code\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72734EC-9EF6-47A9-80E7-579DA1154A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09CC38-9FDA-4DEC-B131-F680C49C9ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -100,18 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이머시브개발팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록체인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +134,18 @@
   </si>
   <si>
     <t>BIZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이머시브서비스개발팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록체인전략팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타버스프로젝트팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +610,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="16.3"/>
@@ -634,101 +634,101 @@
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
